--- a/PlanejamentoDeCusto.xlsx
+++ b/PlanejamentoDeCusto.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5069d8628952eaee/Projetos/GitHub/IdUnico/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="855"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="11910" windowHeight="5655" tabRatio="855"/>
   </bookViews>
   <sheets>
     <sheet name="Orçamento e EVM" sheetId="37" r:id="rId1"/>
@@ -18,7 +13,7 @@
     <definedName name="risco1">#REF!</definedName>
     <definedName name="risco2">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -85,8 +80,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -424,28 +419,14 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -453,14 +434,13 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="7.1868583162217684E-2"/>
-          <c:y val="8.7542375389229515E-2"/>
+          <c:y val="8.7542375389229585E-2"/>
           <c:w val="0.74640657084188911"/>
-          <c:h val="0.76094526299868714"/>
+          <c:h val="0.7609452629986877"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -534,7 +514,7 @@
             <c:numRef>
               <c:f>'Orçamento e EVM'!$B$3:$I$3</c:f>
               <c:numCache>
-                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
+                <c:formatCode>#,##0;[Red]\-#,##0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>21900</c:v>
@@ -545,10 +525,24 @@
                 <c:pt idx="2">
                   <c:v>41970</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>53090</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>91420</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>110780</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>116180</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -591,12 +585,11 @@
             <c:numRef>
               <c:f>'Orçamento e EVM'!$B$4:$I$4</c:f>
               <c:numCache>
-                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
+                <c:formatCode>#,##0;[Red]\-#,##0</c:formatCode>
                 <c:ptCount val="8"/>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -639,36 +632,23 @@
             <c:numRef>
               <c:f>'Orçamento e EVM'!$B$5:$I$5</c:f>
               <c:numCache>
-                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
+                <c:formatCode>#,##0;[Red]\-#,##0</c:formatCode>
                 <c:ptCount val="8"/>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="200909472"/>
-        <c:axId val="200908688"/>
+        <c:axId val="59140736"/>
+        <c:axId val="59159296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="200909472"/>
+        <c:axId val="59140736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="3175">
@@ -695,21 +675,19 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200908688"/>
+        <c:crossAx val="59159296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="200908688"/>
+        <c:axId val="59159296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -721,9 +699,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:numFmt formatCode="#,##0;[Red]\-#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="3175">
@@ -750,7 +726,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200909472"/>
+        <c:crossAx val="59140736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -773,12 +749,11 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.82956878850102556"/>
-          <c:y val="0.36027042074286347"/>
+          <c:y val="0.36027042074286364"/>
           <c:w val="0.16221765913757721"/>
-          <c:h val="0.31737149135427872"/>
+          <c:h val="0.31737149135427906"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
@@ -810,7 +785,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -842,7 +816,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598500000215" footer="0.49212598500000215"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598500000238" footer="0.49212598500000238"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1232,20 +1206,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="24.140625" customWidth="1"/>
     <col min="2" max="9" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="16.5" customHeight="1" thickBot="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1270,7 +1244,7 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
     </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" s="1" customFormat="1">
       <c r="A2" s="2"/>
       <c r="B2" s="19" t="s">
         <v>11</v>
@@ -1297,7 +1271,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" s="5" customFormat="1">
       <c r="A3" s="20" t="s">
         <v>1</v>
       </c>
@@ -1312,13 +1286,28 @@
         <f>C3+2570</f>
         <v>41970</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="E3" s="4">
+        <f>D3+11120</f>
+        <v>53090</v>
+      </c>
+      <c r="F3" s="4">
+        <f>E3+15930</f>
+        <v>69020</v>
+      </c>
+      <c r="G3" s="4">
+        <f>F3+22400</f>
+        <v>91420</v>
+      </c>
+      <c r="H3" s="4">
+        <f>G3+19360</f>
+        <v>110780</v>
+      </c>
+      <c r="I3" s="4">
+        <f>H3+5400</f>
+        <v>116180</v>
+      </c>
     </row>
-    <row r="4" spans="1:25" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" s="5" customFormat="1" ht="13.5" thickBot="1">
       <c r="A4" s="21" t="s">
         <v>2</v>
       </c>
@@ -1331,7 +1320,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="14.25" customHeight="1" thickBot="1">
       <c r="A5" s="22" t="s">
         <v>3</v>
       </c>
@@ -1344,7 +1333,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" s="8" customFormat="1">
       <c r="B6" s="9">
         <v>41934</v>
       </c>
@@ -1377,7 +1366,7 @@
         <v>42144</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" s="11" customFormat="1" ht="11.25">
       <c r="A7" s="12" t="s">
         <v>4</v>
       </c>
@@ -1415,7 +1404,7 @@
       </c>
       <c r="N7" s="16"/>
     </row>
-    <row r="8" spans="1:25" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" s="11" customFormat="1" ht="11.25">
       <c r="A8" s="12" t="s">
         <v>5</v>
       </c>
@@ -1464,7 +1453,7 @@
       <c r="X8" s="13"/>
       <c r="Y8" s="13"/>
     </row>
-    <row r="9" spans="1:25" s="14" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" s="14" customFormat="1" ht="11.25">
       <c r="A9" s="15" t="s">
         <v>6</v>
       </c>
@@ -1513,7 +1502,7 @@
       <c r="X9" s="13"/>
       <c r="Y9" s="13"/>
     </row>
-    <row r="10" spans="1:25" s="14" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" s="14" customFormat="1" ht="11.25">
       <c r="A10" s="15" t="s">
         <v>7</v>
       </c>
@@ -1550,7 +1539,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:25" s="17" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" s="17" customFormat="1" ht="11.25">
       <c r="A11" s="23" t="s">
         <v>8</v>
       </c>
@@ -1587,7 +1576,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:25" s="17" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" s="17" customFormat="1" ht="11.25">
       <c r="A12" s="23" t="s">
         <v>9</v>
       </c>
@@ -1624,53 +1613,53 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:25" s="17" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" s="17" customFormat="1" ht="11.25">
       <c r="A13" s="23" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="17">
         <f>$I$3</f>
-        <v>0</v>
+        <v>116180</v>
       </c>
       <c r="C13" s="17">
         <f t="shared" ref="C13:I13" si="7">$I$3</f>
-        <v>0</v>
+        <v>116180</v>
       </c>
       <c r="D13" s="17">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>116180</v>
       </c>
       <c r="E13" s="17">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>116180</v>
       </c>
       <c r="F13" s="17">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>116180</v>
       </c>
       <c r="G13" s="17">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>116180</v>
       </c>
       <c r="H13" s="17">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>116180</v>
       </c>
       <c r="I13" s="17">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>116180</v>
       </c>
     </row>
-    <row r="14" spans="1:25" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" s="11" customFormat="1" ht="11.25">
       <c r="B14" s="16"/>
     </row>
-    <row r="15" spans="1:25" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" s="11" customFormat="1" ht="11.25">
       <c r="B15" s="16"/>
     </row>
-    <row r="16" spans="1:25" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="2:2" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="2:2" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" s="11" customFormat="1" ht="11.25"/>
+    <row r="17" spans="2:2" s="11" customFormat="1" ht="11.25"/>
+    <row r="18" spans="2:2" s="11" customFormat="1" ht="11.25"/>
+    <row r="19" spans="2:2">
       <c r="B19" s="10"/>
     </row>
   </sheetData>
